--- a/ResourceCredits.xlsx
+++ b/ResourceCredits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Sonniss.com - GDC 2015 - Game Audio Bundle</t>
+  </si>
+  <si>
+    <t>Utilities-Mine or System activation-13</t>
+  </si>
+  <si>
+    <t>Future Weapons</t>
+  </si>
+  <si>
+    <t>SoundMorph</t>
+  </si>
+  <si>
+    <t>Start Hack, End Hack</t>
+  </si>
+  <si>
+    <t>transition t04 soft 016</t>
+  </si>
+  <si>
+    <t>Spectral Jump Skill</t>
   </si>
 </sst>
 </file>
@@ -573,7 +591,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,22 +694,50 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>

--- a/ResourceCredits.xlsx
+++ b/ResourceCredits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\-SP3-Lone-Spectre.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>Spectral Jump Skill</t>
+  </si>
+  <si>
+    <t>StartSelect,UI,set93,talking tones,bright percussion,playful,toonish,light ambience,select</t>
+  </si>
+  <si>
+    <t>Objective Completed</t>
+  </si>
+  <si>
+    <t>Eiravaein Works</t>
+  </si>
+  <si>
+    <t>Start Select</t>
+  </si>
+  <si>
+    <t>Modular UI - Text Type-Hi Tech-003.wav</t>
+  </si>
+  <si>
+    <t>Modular UI - Data Transmissions-001</t>
+  </si>
+  <si>
+    <t>Objective: Bomb Planting</t>
+  </si>
+  <si>
+    <t>Objective: Bomb Defusing</t>
   </si>
 </sst>
 </file>
@@ -272,27 +296,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,11 +310,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,273 +623,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="98.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="98.5703125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="7">
         <v>0.26666666666666666</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="7">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResourceCredits.xlsx
+++ b/ResourceCredits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\-SP3-Lone-Spectre.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -110,16 +110,46 @@
     <t>Start Select</t>
   </si>
   <si>
-    <t>Modular UI - Text Type-Hi Tech-003.wav</t>
-  </si>
-  <si>
-    <t>Modular UI - Data Transmissions-001</t>
-  </si>
-  <si>
     <t>Objective: Bomb Planting</t>
   </si>
   <si>
     <t>Objective: Bomb Defusing</t>
+  </si>
+  <si>
+    <t>HKAP2 Seq1.1 Hits 4</t>
+  </si>
+  <si>
+    <t>Hong Kong Action Kit - Hit Kit #2</t>
+  </si>
+  <si>
+    <t>NoizBoy</t>
+  </si>
+  <si>
+    <t>Objective: Assassination</t>
+  </si>
+  <si>
+    <t>SoundMorph - Richard Devine</t>
+  </si>
+  <si>
+    <t>Modular UI</t>
+  </si>
+  <si>
+    <t>Text Type-Hi Tech-003</t>
+  </si>
+  <si>
+    <t>Data Transmissions-001</t>
+  </si>
+  <si>
+    <t>EFX EXT .50 Cal Pistol Shots 02 A</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Coll Anderson</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
 </sst>
 </file>
@@ -149,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -292,11 +322,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +384,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +672,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +681,7 @@
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="98.5703125" style="1" customWidth="1"/>
     <col min="8" max="12" width="9.140625" style="1"/>
@@ -826,16 +872,24 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -846,41 +900,77 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>

--- a/ResourceCredits.xlsx
+++ b/ResourceCredits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xecli\Documents\Git\-SP3-Lone-Spectre.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Obtained From</t>
   </si>
   <si>
-    <t>Day 43 - 70 Days</t>
-  </si>
-  <si>
     <t>Mark Sparling</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>https://www.reddit.com/r/gamedev/comments/362c72/i_made_a_bunch_of_music_feel_free_to_use_it_in/</t>
   </si>
   <si>
-    <t>Day 16 - 70 Days</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
@@ -150,6 +144,15 @@
   </si>
   <si>
     <t>Death</t>
+  </si>
+  <si>
+    <t>70 Days</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Day 55</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -715,20 +718,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -740,20 +745,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -765,22 +772,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -792,22 +799,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -819,22 +826,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -846,22 +853,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -873,22 +880,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -900,22 +907,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7">
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -927,22 +934,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -954,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>

--- a/ResourceCredits.xlsx
+++ b/ResourceCredits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Day 55</t>
+  </si>
+  <si>
+    <t>Day 47</t>
+  </si>
+  <si>
+    <t>Level 9</t>
+  </si>
+  <si>
+    <t>Day 48</t>
+  </si>
+  <si>
+    <t>Level 8</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,26 +996,54 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
